--- a/biology/Botanique/Salix_lindleyana/Salix_lindleyana.xlsx
+++ b/biology/Botanique/Salix_lindleyana/Salix_lindleyana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Salix lindleyana, le saule de Lindley (en anglais, Hymalayan creeping willow), est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un saule originaire d'Asie.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Salix lindleyana est une des environ 200 plantes portant le nom de John Lindley, ce botaniste anglais du milieu du XVIIIe siècle. Ce petit saule rampant est utilisé comme couvre-sol ou en remplissage sur un mur ou encore dans un conteneur avec ses nouvelles pousses porteuses de rameaux rougeâtres. Les dernières pousses portent de petits chatons très courts. la floraison a lieu en juin. L'espèce n'apprécie guère la chaleur, elle est destinée aux frais jardins du nord[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salix lindleyana est une des environ 200 plantes portant le nom de John Lindley, ce botaniste anglais du milieu du XVIIIe siècle. Ce petit saule rampant est utilisé comme couvre-sol ou en remplissage sur un mur ou encore dans un conteneur avec ses nouvelles pousses porteuses de rameaux rougeâtres. Les dernières pousses portent de petits chatons très courts. la floraison a lieu en juin. L'espèce n'apprécie guère la chaleur, elle est destinée aux frais jardins du nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante se rencontre naturellement au Pakistan (Hazara), Kashmir, en Inde (Kumaon), au Népal, dans le Sikkim, Bhoutan, en Chine (Yunnan, Xizang)[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante se rencontre naturellement au Pakistan (Hazara), Kashmir, en Inde (Kumaon), au Népal, dans le Sikkim, Bhoutan, en Chine (Yunnan, Xizang). 
 </t>
         </is>
       </c>
